--- a/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,87; 5,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,26; -0,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,9; 9,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-3,89; 6,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,36; 6,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,27; 2,33</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-17,4; 24,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,98; -3,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,57; 31,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-10,57; 19,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-4,38; 22,22</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,88; 8,15</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,87; 5,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,26; -0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,9; 9,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-3,89; 6,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,36; 6,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,27; 2,33</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-17,4; 24,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,98; -3,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,57; 31,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-10,57; 19,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-4,38; 22,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,88; 8,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,84</t>
+          <t>-4,99; 5,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,89</t>
+          <t>-10,28; -0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,78</t>
+          <t>-1,31; 9,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,27</t>
+          <t>-4,38; 6,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,39</t>
+          <t>-0,99; 6,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,33</t>
+          <t>-5,44; 2,05</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 24,59</t>
+          <t>-17,42; 24,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,09</t>
+          <t>-35,75; -2,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 31,39</t>
+          <t>-3,34; 29,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 19,88</t>
+          <t>-11,98; 20,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 22,22</t>
+          <t>-2,92; 22,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 8,15</t>
+          <t>-16,34; 7,05</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,84</t>
+          <t>-4,99; 5,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,89</t>
+          <t>-10,28; -0,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,78</t>
+          <t>-1,31; 9,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,27</t>
+          <t>-4,38; 6,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,39</t>
+          <t>-0,99; 6,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,33</t>
+          <t>-5,44; 2,05</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 24,59</t>
+          <t>-17,42; 24,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,09</t>
+          <t>-35,75; -2,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 31,39</t>
+          <t>-3,34; 29,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 19,88</t>
+          <t>-11,98; 20,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 22,22</t>
+          <t>-2,92; 22,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 8,15</t>
+          <t>-16,34; 7,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,96</t>
+          <t>-5,03; 5,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,58</t>
+          <t>-10,62; -0,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,36</t>
+          <t>-1,06; 9,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,52</t>
+          <t>-4,02; 6,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,32</t>
+          <t>-1,7; 6,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,41; 1,86</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 24,45</t>
+          <t>-17,24; 26,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -2,57</t>
+          <t>-35,6; -3,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 29,4</t>
+          <t>-3,13; 30,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 20,16</t>
+          <t>-11,17; 21,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 22,04</t>
+          <t>-4,96; 20,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 7,05</t>
+          <t>-16,63; 6,46</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,96</t>
+          <t>-5,03; 5,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,58</t>
+          <t>-10,62; -0,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,36</t>
+          <t>-1,06; 9,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,52</t>
+          <t>-4,02; 6,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,32</t>
+          <t>-1,7; 6,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,41; 1,86</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 24,45</t>
+          <t>-17,24; 26,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -2,57</t>
+          <t>-35,6; -3,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 29,4</t>
+          <t>-3,13; 30,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 20,16</t>
+          <t>-11,17; 21,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 22,04</t>
+          <t>-4,96; 20,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 7,05</t>
+          <t>-16,63; 6,46</t>
         </is>
       </c>
     </row>
